--- a/Op_Res_Cats/Datamodel OpCats-ResCats-LoV.xlsx
+++ b/Op_Res_Cats/Datamodel OpCats-ResCats-LoV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numartin\Desktop\Validation_Tool_01_07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numartin\Desktop\test_version_2\Op_Res_Cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C343912-D3E5-4295-B624-3031E6740349}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB431C0-40FE-446D-9804-2CDD84C63608}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpCats" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ResCats!$B$1:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpCats!$A$1:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ResCats!$A$1:$E$79</definedName>
     <definedName name="Blocking">'[1]UAT Testers &amp; Scenarios'!$K$19:$K$20</definedName>
     <definedName name="Impact">'[1]UAT Testers &amp; Scenarios'!$K$14:$K$16</definedName>
     <definedName name="results">'[1]UAT Testers &amp; Scenarios'!$K$3:$K$11</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="184">
   <si>
     <t>Preventive On Site</t>
   </si>
@@ -588,13 +589,19 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Ticket Admin Issues</t>
+  </si>
+  <si>
+    <t>Priority changed/New ticket created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +639,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Nokia Pure Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -647,12 +666,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -668,9 +702,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="_x000a_shell=progma" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1229,15 +1270,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42AD71-4F06-4BC8-82A8-06217238ADED}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
@@ -1263,97 +1305,97 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -1361,33 +1403,33 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1395,32 +1437,32 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1429,71 +1471,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -1501,13 +1543,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1515,122 +1557,122 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -1639,57 +1681,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -1700,10 +1742,10 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -1714,21 +1756,21 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1737,15 +1779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1756,13 +1798,13 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1770,13 +1812,13 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1784,150 +1826,150 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -1941,7 +1983,7 @@
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -1955,55 +1997,55 @@
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>71</v>
       </c>
@@ -2011,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -2025,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>71</v>
       </c>
@@ -2039,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>71</v>
       </c>
@@ -2053,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>71</v>
       </c>
@@ -2067,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>71</v>
       </c>
@@ -2084,10 +2126,10 @@
         <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>71</v>
       </c>
@@ -2098,10 +2140,10 @@
         <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>71</v>
       </c>
@@ -2112,10 +2154,10 @@
         <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -2126,10 +2168,10 @@
         <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -2140,10 +2182,10 @@
         <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>71</v>
       </c>
@@ -2154,10 +2196,10 @@
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -2168,10 +2210,10 @@
         <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>71</v>
       </c>
@@ -2182,10 +2224,10 @@
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -2193,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>71</v>
       </c>
@@ -2207,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>71</v>
       </c>
@@ -2221,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>71</v>
       </c>
@@ -2235,60 +2277,60 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -2297,15 +2339,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
         <v>1</v>
@@ -2313,80 +2355,80 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -2395,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>71</v>
       </c>
@@ -2403,41 +2445,54 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E85" xr:uid="{EBCF5BD2-9524-41DF-8F9C-16EF820732A3}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Continuous Service Improvement"/>
+        <filter val="Network Change Request"/>
+        <filter val="Service Order - Customer"/>
+        <filter val="Service Order - Network"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E78">
+      <sortCondition ref="C1:C85"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2448,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E2CA1F-4AF3-47F9-94A5-1F9CF3E66851}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,7 +3613,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E79" xr:uid="{09AECA3A-A614-441B-8B36-53C88D5E11B3}"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -3571,70 +3641,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="939405ac-235b-4c6a-9859-c70ae8c02984" ContentTypeId="0x0101" PreviousValue="true"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E61AE85F1648DB4CB6CBB78ED91544F9" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60b0727c8fc9f4f3988e331b723e33de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71c5aaf6-e6ce-465b-b873-5148d2a4c105" xmlns:ns3="afd430be-d55a-41a6-a30c-a12925b7f819" xmlns:ns4="77000fac-c2f3-48f8-b3a1-5c225be8c31a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8aa35972676ef3ff9f6fa6392a0c9b34" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="71c5aaf6-e6ce-465b-b873-5148d2a4c105"/>
@@ -3835,7 +3841,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_dlc_DocId xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">TAIQP3BI23Q5-1952572227-69</_dlc_DocId>
@@ -3848,31 +3854,71 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F98F6D8-4C8C-4E73-833D-DECDCBBF35F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{843D17B6-C3AC-4059-BA15-2C27BE1E18DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624A2BB5-AE45-4024-8925-091FAC0DBAA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="939405ac-235b-4c6a-9859-c70ae8c02984" ContentTypeId="0x0101" PreviousValue="true"/>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE53DF9-1C1C-4827-AEBF-EEAC4CC06E8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3892,7 +3938,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C975C149-B42D-42E2-9357-E85BD7FAFAA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3908,4 +3954,28 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F98F6D8-4C8C-4E73-833D-DECDCBBF35F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{843D17B6-C3AC-4059-BA15-2C27BE1E18DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624A2BB5-AE45-4024-8925-091FAC0DBAA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>